--- a/data/quiz.xlsx
+++ b/data/quiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiqiling/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiqiling/Documents/GitHub/bronze-clocks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541DDE79-FDC9-2742-B750-D99E30CE2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B85BBF1-6B73-EF4C-983F-34161B35D62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14080" yWindow="4280" windowWidth="24320" windowHeight="17320" xr2:uid="{CBACCA3D-7D51-594C-9FE5-F6151FA40A1D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,49 @@
   </si>
   <si>
     <t>https://apiwenwu.hebeimuseum.org.cn/news/show/id/17.html</t>
+  </si>
+  <si>
+    <t>大盂鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大克鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Da Ke Ding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.shanghaimuseum.net/resource/museum_files/show_files/20151104094055028/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ritual Cauldron (Ding) of Duke Ke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fufeng, Shaanxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static/images/大克鼎.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static/images/大盂鼎.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Da Yu Ding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ritual Cauldron (Ding) of Duke Yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chnmuseum.cn/portals/0/web/zt/202106dayuding/</t>
   </si>
 </sst>
 </file>
@@ -850,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871DCE2-55FD-4844-8A79-74A725EB9D9C}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1446,6 +1489,70 @@
         <v>112</v>
       </c>
     </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>-1040</v>
+      </c>
+      <c r="H19">
+        <v>-1003</v>
+      </c>
+      <c r="I19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>-950</v>
+      </c>
+      <c r="H20">
+        <v>-886</v>
+      </c>
+      <c r="I20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1453,6 +1560,7 @@
     <hyperlink ref="J5" r:id="rId2" xr:uid="{F6AC1975-F65F-954C-BBA0-B25006D8EA93}"/>
     <hyperlink ref="J6" r:id="rId3" xr:uid="{FDFBAC33-9B07-F74A-92B2-FDB544E92443}"/>
     <hyperlink ref="J8" r:id="rId4" location="inline_content_intro" xr:uid="{BC9A64A1-DC3B-E74D-95A9-B7BFD1D24100}"/>
+    <hyperlink ref="J20" r:id="rId5" xr:uid="{6C482A1F-3701-B14B-9FBA-971BC5FA0820}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/quiz.xlsx
+++ b/data/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiqiling/Documents/GitHub/bronze-clocks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B85BBF1-6B73-EF4C-983F-34161B35D62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140326FC-DB1A-294A-801B-7F0A61A77FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14080" yWindow="4280" windowWidth="24320" windowHeight="17320" xr2:uid="{CBACCA3D-7D51-594C-9FE5-F6151FA40A1D}"/>
+    <workbookView xWindow="5080" yWindow="1800" windowWidth="24320" windowHeight="17320" xr2:uid="{CBACCA3D-7D51-594C-9FE5-F6151FA40A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>static/images/错金博山炉.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>static/images/曾侯乙尊盘.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,6 +510,53 @@
   </si>
   <si>
     <t>https://www.chnmuseum.cn/portals/0/web/zt/202106dayuding/</t>
+  </si>
+  <si>
+    <t>static/images/错金铜博山炉.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸢鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuan Ding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ritual Cauldron (Ding) with Taotie Motif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harvard Art Museums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static/images/鸢鼎.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ritual Wine Vessel (Fang Yi) with Taotie Motif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hvrd.art/o/203988</t>
+  </si>
+  <si>
+    <t>static/images/饕餮纹方彝.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hvrd.art/o/204094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方彝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fang Yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -893,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871DCE2-55FD-4844-8A79-74A725EB9D9C}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1003,7 +1046,7 @@
         <v>-113</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
@@ -1035,7 +1078,7 @@
         <v>-383</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
@@ -1046,19 +1089,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>-1046</v>
@@ -1067,10 +1110,10 @@
         <v>-992</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1078,19 +1121,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>-1046</v>
@@ -1099,10 +1142,10 @@
         <v>-992</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1110,19 +1153,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>-1250</v>
@@ -1131,10 +1174,10 @@
         <v>-1046</v>
       </c>
       <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
         <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1142,16 +1185,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -1163,10 +1206,10 @@
         <v>-782</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1174,19 +1217,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
       </c>
       <c r="G9">
         <v>-221</v>
@@ -1195,10 +1238,10 @@
         <v>-210</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1206,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>-1250</v>
@@ -1227,10 +1270,10 @@
         <v>-1046</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1238,19 +1281,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
       </c>
       <c r="G11">
         <v>-1250</v>
@@ -1259,10 +1302,10 @@
         <v>-1046</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1270,19 +1313,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12">
         <v>-495</v>
@@ -1291,10 +1334,10 @@
         <v>-473</v>
       </c>
       <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
         <v>76</v>
-      </c>
-      <c r="J12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1302,16 +1345,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -1323,10 +1366,10 @@
         <v>-496</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1334,16 +1377,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>86</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -1355,10 +1398,10 @@
         <v>-473</v>
       </c>
       <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
         <v>87</v>
-      </c>
-      <c r="J14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1366,19 +1409,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15">
         <v>-1030</v>
@@ -1387,10 +1430,10 @@
         <v>-1000</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1398,19 +1441,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
         <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16">
         <v>-1250</v>
@@ -1419,10 +1462,10 @@
         <v>-1046</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1430,19 +1473,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>105</v>
       </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17">
         <v>9</v>
@@ -1451,10 +1494,10 @@
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1462,13 +1505,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
         <v>108</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -1483,10 +1526,10 @@
         <v>-113</v>
       </c>
       <c r="I18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" t="s">
         <v>111</v>
-      </c>
-      <c r="J18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1494,19 +1537,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
         <v>121</v>
       </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19">
         <v>-1040</v>
@@ -1515,10 +1558,10 @@
         <v>-1003</v>
       </c>
       <c r="I19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1526,19 +1569,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
-        <v>115</v>
-      </c>
       <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
         <v>117</v>
       </c>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>-950</v>
@@ -1547,10 +1590,74 @@
         <v>-886</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21">
+        <v>-1400</v>
+      </c>
+      <c r="H21">
+        <v>-1100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22">
+        <v>-1200</v>
+      </c>
+      <c r="H22">
+        <v>-1100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1561,6 +1668,7 @@
     <hyperlink ref="J6" r:id="rId3" xr:uid="{FDFBAC33-9B07-F74A-92B2-FDB544E92443}"/>
     <hyperlink ref="J8" r:id="rId4" location="inline_content_intro" xr:uid="{BC9A64A1-DC3B-E74D-95A9-B7BFD1D24100}"/>
     <hyperlink ref="J20" r:id="rId5" xr:uid="{6C482A1F-3701-B14B-9FBA-971BC5FA0820}"/>
+    <hyperlink ref="J21" r:id="rId6" xr:uid="{5CC04550-BE5E-6C48-9AD7-0286035E1B90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/quiz.xlsx
+++ b/data/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yiqiling/Documents/GitHub/bronze-clocks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140326FC-DB1A-294A-801B-7F0A61A77FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE57E3F0-D4E4-D047-BA85-0C07BFA7D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1800" windowWidth="24320" windowHeight="17320" xr2:uid="{CBACCA3D-7D51-594C-9FE5-F6151FA40A1D}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{CBACCA3D-7D51-594C-9FE5-F6151FA40A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,6 +556,25 @@
   </si>
   <si>
     <t>Fang Yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错金嵌松石樽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wine Vessel (Zun) with Gold-inlaid Turquoise </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuo Jin Qian Song Shi Zun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dpm.org.cn/collection/bronze/229985.html</t>
+  </si>
+  <si>
+    <t>static/images/错金嵌松石樽.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871DCE2-55FD-4844-8A79-74A725EB9D9C}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1660,6 +1679,38 @@
         <v>130</v>
       </c>
     </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>-330</v>
+      </c>
+      <c r="H23">
+        <v>-221</v>
+      </c>
+      <c r="I23" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
